--- a/data/trans_dic/P13A_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Edad-trans_dic.xlsx
@@ -582,10 +582,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.01737877611021752</v>
+        <v>0.01943311679554897</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009067021299554463</v>
+        <v>0.009865313546483213</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.08602538000978663</v>
+        <v>0.08980269708293684</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04434782211809227</v>
+        <v>0.04296441183032024</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004025626584667096</v>
+        <v>0.003972991586171702</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0079970684807721</v>
+        <v>0.008280593676207603</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00808412384354631</v>
+        <v>0.008412920500065974</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03013777817829257</v>
+        <v>0.02784495518827497</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03267503343782354</v>
+        <v>0.0333191167788776</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02528583032828005</v>
+        <v>0.02503138356404917</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.01153581747619169</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.03028638697312399</v>
+        <v>0.030286386973124</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.02092217551505917</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004508084328186197</v>
+        <v>0.004514765151427155</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01916612305286492</v>
+        <v>0.0196627584393757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01392763651422778</v>
+        <v>0.01416649500486219</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02524407129208392</v>
+        <v>0.02490562924248911</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04223351199150255</v>
+        <v>0.04362708492310329</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02900940833236799</v>
+        <v>0.03009845499468184</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.01056635496611798</v>
+        <v>0.01056635496611797</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.05589894627477614</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004502038205232418</v>
+        <v>0.004748471084972137</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04344192081154423</v>
+        <v>0.04412643862327085</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02654402763481799</v>
+        <v>0.02681906457190012</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02132483881748152</v>
+        <v>0.02219632586494762</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07065274231725588</v>
+        <v>0.07100190631394432</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04272690104202774</v>
+        <v>0.04425307929258916</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>0.05362982727665042</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.03590280791624581</v>
+        <v>0.03590280791624582</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009476556264928961</v>
+        <v>0.009712654075412349</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04038268443005927</v>
+        <v>0.040012700052647</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02782892002938642</v>
+        <v>0.02812817705330298</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02884539294972411</v>
+        <v>0.03197986632808342</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06928932170801635</v>
+        <v>0.07013951103837561</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04511932842601621</v>
+        <v>0.04636581175014849</v>
       </c>
     </row>
     <row r="19">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.009991029649098069</v>
+        <v>0.009991029649098072</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.04037092855072641</v>
+        <v>0.0403709285507264</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.02580071516575805</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003694929428724654</v>
+        <v>0.003955560920534663</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02762960931116863</v>
+        <v>0.02854414947612924</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01833217059497351</v>
+        <v>0.01831496168763136</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02265297175658652</v>
+        <v>0.0233435076914098</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05653866959119414</v>
+        <v>0.056643042872799</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03506304658158145</v>
+        <v>0.03536555566983546</v>
       </c>
     </row>
     <row r="22">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007400217856954551</v>
+        <v>0.007597071829822593</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02999810316312297</v>
+        <v>0.03112569654121731</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0232406384750423</v>
+        <v>0.02297108756418446</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03231546836805002</v>
+        <v>0.03149023998128022</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06085460080692521</v>
+        <v>0.06083728021968592</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0447373387120375</v>
+        <v>0.04384358122174653</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>0.01134071447310502</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.04172072495503839</v>
+        <v>0.04172072495503838</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.0269465743780494</v>
+        <v>0.02694657437804941</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.00825596437309384</v>
+        <v>0.008299648256392896</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03611444804591855</v>
+        <v>0.03646491850232821</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02378849893491861</v>
+        <v>0.02355325836603392</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01537438538715443</v>
+        <v>0.01554821243917731</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04874032050514027</v>
+        <v>0.0477714198252031</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0309719647443804</v>
+        <v>0.03078181500823735</v>
       </c>
     </row>
     <row r="28">
@@ -1131,10 +1131,10 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>6232</v>
+        <v>6969</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6949</v>
+        <v>7561</v>
       </c>
     </row>
     <row r="7">
@@ -1146,10 +1146,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>30850</v>
+        <v>32204</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>33988</v>
+        <v>32928</v>
       </c>
     </row>
     <row r="8">
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1920</v>
+        <v>1895</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3999</v>
+        <v>4141</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7898</v>
+        <v>8219</v>
       </c>
     </row>
     <row r="11">
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14372</v>
+        <v>13279</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16341</v>
+        <v>16663</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24704</v>
+        <v>24456</v>
       </c>
     </row>
     <row r="12">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11861</v>
+        <v>12169</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17218</v>
+        <v>17514</v>
       </c>
     </row>
     <row r="15">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15586</v>
+        <v>15377</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26137</v>
+        <v>26999</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>35864</v>
+        <v>37210</v>
       </c>
     </row>
     <row r="16">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3149</v>
+        <v>3322</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>31887</v>
+        <v>32390</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>38052</v>
+        <v>38446</v>
       </c>
     </row>
     <row r="19">
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14917</v>
+        <v>15527</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>51861</v>
+        <v>52117</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>61251</v>
+        <v>63439</v>
       </c>
     </row>
     <row r="20">
@@ -1414,13 +1414,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5738</v>
+        <v>5881</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24426</v>
+        <v>24202</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>33683</v>
+        <v>34045</v>
       </c>
     </row>
     <row r="23">
@@ -1431,13 +1431,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>17466</v>
+        <v>19363</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>41911</v>
+        <v>42425</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>54610</v>
+        <v>56119</v>
       </c>
     </row>
     <row r="24">
@@ -1486,13 +1486,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1491</v>
+        <v>1597</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>12101</v>
+        <v>12501</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>15428</v>
+        <v>15414</v>
       </c>
     </row>
     <row r="27">
@@ -1503,13 +1503,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9143</v>
+        <v>9422</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>24762</v>
+        <v>24808</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>29509</v>
+        <v>29763</v>
       </c>
     </row>
     <row r="28">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2281</v>
+        <v>2342</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>13879</v>
+        <v>14401</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>17918</v>
+        <v>17710</v>
       </c>
     </row>
     <row r="31">
@@ -1575,13 +1575,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9963</v>
+        <v>9708</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>28156</v>
+        <v>28148</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>34491</v>
+        <v>33802</v>
       </c>
     </row>
     <row r="32">
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>29053</v>
+        <v>29207</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>134242</v>
+        <v>135544</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>172137</v>
+        <v>170435</v>
       </c>
     </row>
     <row r="35">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>54103</v>
+        <v>54714</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>181174</v>
+        <v>177572</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>224117</v>
+        <v>222741</v>
       </c>
     </row>
     <row r="36">
